--- a/500all/speech_level/speeches_CHRG-114hhrg99777.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99777.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400145</t>
   </si>
   <si>
-    <t>Scott Garrett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Garrett. Good morning, everyone. The Subcommittee on Capital Markets and Government Sponsored Enterprises will now come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Oversight of the SEC's Division of Investment Management.'' I welcome our witness, the Director of the Division, Mr. David Grim.    Without objection, members of the Full Financial Services Committee who are not members of the subcommittee will be recognized for the purpose of questioning the witness.    I will now recognize myself for 3 minutes for an opening statement.    Today's hearing will focus on the oversight of the SEC's Division of Investment Management. This will actually be the fourth oversight hearing that this subcommittee has held in just this last year-and-a-half with regard to various divisions within the SEC.</t>
   </si>
   <si>
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grim, thank you for joining us today for this hearing. And also congratulations to you, and some would also say condolences to you as well, on your recent appointment to head up the Division. Thank you also, of course, for your hard work at the Commission for 2 decades, 20 years.    The Division of Investment Management has broad regulatory responsibility over registered investment companies, ICIs, investment advisers, asset managers, and other entities that manage money basically on behalf of investors. And this year actually marks the 75th anniversary of the Investment Company Act and the Investment Advisers Act as well, two statutes that the SEC has administered for years as an independent--I note that--agency with expertise over our capital markets.    Though many on this committee, myself included, often disagree with some of the actions of the SEC, I believe that there is broad bipartisan agreement that the Commission should remain the primary regulator of investment funds and our capital markets, and that the Commission's independence should never be compromised. However, recently the SEC's independence has come under increasing threat from unaccountable and secretive regulatory bodies--namely, the FSOC, the Federal Reserve, and the Financial Stability Board--that appear to be on a mission to eliminate risk from our capital markets by imposing bank-like regulations on asset managers and others that have been deemed part of the so-called shadow banking system.    The FSOC, in particular, has not been shy in the past about using its bully pulpit, if you will, to influence or to threaten or cajole other regulators into carrying out its agenda, this despite the fact that expertise over the asset management industry and registered investment companies resides not with the prudential regulators, but with the SEC, and specifically with the Division of Investment Management.    And so to that end, I am encouraged that the SEC is finally beginning to assert its jurisdiction in this area. Last year, Chair White laid out a rulemaking agenda for asset managers that so far includes proposals for enhanced disclosure, as well as rules for liquidity management by investment funds. Now, I would prefer that the SEC draft such new rules as opposed to the FSOC or the Federal Reserve. I do remain concerned that part of the SEC's agenda is still subject to an inappropriate influence by the prudential regulators.    And so, today, as part of our oversight responsibility, this subcommittee will be closely monitoring the SEC's actions in this area to ensure that they actually reflect the SEC's threefold mission and are not simply an ad hoc response to threats from other regulatory bodies.    Additionally, I am eager to hear today about the Division's work regarding Section 913 of the Dodd-Frank Act, and the Department of Labor's Fiduciary Rule, as well as the efforts that the Division is undertaking to just generally to promote capital formation.    And so with that, Director Grim, thank you again for being with us here. And I now yield 5 minutes to the ranking member of the subcommittee, Mrs. Maloney.    Mrs. Maloney. Thank you so much, Mr. Chairman, for this continuing oversight hearing that you have arranged. And I welcome Mr. Grim to our hearing today.    The SEC's Division of Investment Management is one of the agency's most important divisions because it regulates the asset management industry including investment advisers, mutual funds, and exchange traded funds (ETFs).    Mutual funds and ETFs have been growing at an incredibly rapid pace in recent years. Mutual funds have grown from $4.4 trillion in assets in 2000 to a whopping $12.7 trillion in assets presently. And ETFs have grown from $151 billion in assets in 2003 to nearly $2 trillion today.    There are nearly 12,000 registered investment advisers overseen by the Investment Management Division, and these investment advisers report over $62 trillion in assets under management. So it is fair to say that the Investment Management Division has its work cut out for it. When an industry is growing and innovating as rapidly as the asset management industry, it is critical that the regulator not get left behind.    So has the growth come from new products that pose excessive risks or that investors don't fully understand? Has the industry's core infrastructure kept pace with the rapid growth?    On this score, the Investment Management Division is beginning to catch up with the industry. For instance, the Division is working on three critical new rules on liquidity management for mutual funds, which is an area that some regulators have argued poses a risk to the markets. The Financial Stability Oversight Council, or FSOC, has expressed concern that without proper liquidity management there is a risk that funds could be forced into a fire sale of illiquid assets which would send prices plummeting and harm the broader markets.    It is not entirely clear how big this risk is. But after the financial crisis of 2008, prudence is the best course. So the SEC has responded by embarking on a series of rulemakings, led by the Investment Management Division, that are designed to protect investors by requiring mutual funds to bolster their liquidity management practices. And I think the SEC should be praised for these rulemakings. Thank you.    In May, the SEC proposed to enhance disclosures about mutual funds' liquidity which will allow investors to make more informed choices and potentially avoid investing in funds that are riskier than an investor wants. And just last month, the SEC proposed a new rule that would allow mutual funds to use something called swing pricing, which would force investors who are withdrawing their money from mutual funds to internalize the cost of their withdrawals and thus protect the remaining investors.    I think that this is a sensible proposal to the extent that the liquidity issues in mutual funds could create a real first-mover advantage, in other words, an incentive for investors to withdraw their money first, like on a bank run. Swing pricing has the potential to eliminate that first-mover advantage entirely.    This latest proposed rule also formalizes and enhances the SEC's longstanding liquidity guidelines for mutual funds, which will provide more consistent and robust liquidity practices across the entire mutual fund industry.    So I am encouraged by the Investment Management Division's work in this area, and I hope that they will continue to press ahead with the proposals that Chair Mary Jo White outlined before this committee earlier. I look forward to hearing more from Mr. Grim about his work on these proposals. And I yield back.    Thank you very much for coming.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412484</t>
   </si>
   <si>
-    <t>Robert Hurt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurt. Thank you, Mr. Chairman. I thank you for holding today's hearing.    Welcome, Mr. Grim. Thank you for joining us today.    I am pleased that this subcommittee is continuing to focus on vigorous oversight and accountability within the SEC. Today's hearing is an important reminder of the critical functions that the SEC's Division of Investment Management plays in our economy as the SEC's mission includes the critical component of facilitating capital formation.    Capital formation is crucial to the success of our economy, and as I travel across Virginia's Fifth congressional district, my district, I am regularly reminded of how our Nation's small businesses and startups depend on access to private capital to be successful.    I am also regularly reminded that well-intended Federal regulation often results in creating unnecessary costs and barriers to capital formation. As you may know, I have been a proponent of legislative initiatives that would encourage economic growth and job creation by increasing the flow of private capital to small businesses that are found on Main Streets all across America. Unfortunately, the Dodd-Frank Act, in many instances, has placed a costly and unnecessary regulatory burden of SEC registration, specifically SEC registration on advisers to private equity funds, while exempting advisers to other similar funds.    A bill that Representative Jim Himes and I sponsored last Congress passed the House on a bipartisan basis and, if enacted, would have eliminated this unnecessary burden and would have put private equity funds on a similar playing field as that of other similar advisers.    The reality is simple: private equity funds and their advisers did not cause the financial crisis, and I believe there is general consensus that they are not a source of systemic risk. In my district, there are literally thousands of jobs that exist because of the investment by private equity funds. I believe that the treatment in Dodd-Frank of advisers to private equity funds suggests that this committee review the overall Investment Advisers Act registration regime and look for ways to make sure that the laws in this area are, in fact, protecting investors and are, in fact, facilitating capital formation at a time when capital formation is desperately needed in places like my congressional district.    I look forward to your testimony, Mr. Grim, and I thank you for your appearance.    Mr. Chairman, I thank you. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    And thank you, Mr. Grim, for your willingness to help the committee with its work.    Sometimes, this committee can be like a conveyor belt where we have a new issue every 7 seconds and we are on to the next rule or the next topic. I see in your remarks, your extended written remarks, you talk about the money market funds rule that we adopted back in July of 2014, where we allowed the NAV to float. There was a lot of debate here of what the impact of that might be.    Now, I realize with that type of rule, it is sort of like you are trying to test the seaworthiness of a ship and it is not necessarily easy to do when things are calm. But do you have any data for us or any experience, complaints, progress reports, lack of progress reports from the adoption of that rule on how that might be going?</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chairman. I have a couple of questions on business development companies. And then whatever time I have left, I am going to yield to Ms. Velazquez for whatever questions she has.</t>
   </si>
   <si>
@@ -262,9 +244,6 @@
     <t>412488</t>
   </si>
   <si>
-    <t>Sean P. Duffy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duffy. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -304,6 +283,9 @@
     <t xml:space="preserve">    Chairman Garrett. The gentleman is recognized with a little bit of wiggle room on the end of it.</t>
   </si>
   <si>
+    <t>400363</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, sir.</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>412411</t>
   </si>
   <si>
-    <t>Dennis A. Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ross. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -376,9 +355,6 @@
     <t>412407</t>
   </si>
   <si>
-    <t>John C. Carney Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman.    Thank you, Mr. Grim, for coming in today and for answering the questions that we have.    I was part of a group of members of the committee on this side of the aisle, I think, obviously, I think it was also a bipartisan effort to encourage the Department of Labor and the SEC to develop the fiduciary standard, uniform fiduciary rule together in a consistent kind of way. That didn't happen. That was several years ago. And the Department of Labor has proposed its rule and they are taking a lot of feedback. They are getting a lot of input.    And you are in the process, I understand what you have said and the information that I have, in developing the standard from the SEC's perspective. Is that right? We have had a lot of conversation about it over the last--</t>
   </si>
   <si>
@@ -421,9 +397,6 @@
     <t>412437</t>
   </si>
   <si>
-    <t>Bill Huizenga</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huizenga. Thank you, Mr. Chairman.    Quickly, I want to talk about proxy advisory firms, but I do want a quick clarification. When asked by my colleague from Florida about the Department of Labor and the fiduciary standards and about your involvement and whether the Department of Labor had asked for help, you said, ``We have shared the information.'' Did the DOL actually ask you proactively for that help?</t>
   </si>
   <si>
@@ -463,9 +436,6 @@
     <t>412282</t>
   </si>
   <si>
-    <t>James A. Himes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Himes. Thank you, Mr. Chairman.    And thank you, Mr. Grim, for being with us. I have two categories or two questions, really.    The first is, you note in your testimony that in December of 2014, the FSOC released a notice seeking public comment on risks to financial stability from asset managers, and you further note that the staff has reviewed the comments received. It is a topic of some interest to a lot of us about systemic risk that may or may not be associated with asset managers.    I know you have sort of addressed this a little bit, but I wonder if I could get you to characterize these comments and any initial conclusions or preliminary conclusions or thoughts that you might have on the comments as a whole and whether there is a sense that there is systemic risk emergent from asset managers.</t>
   </si>
   <si>
@@ -484,9 +454,6 @@
     <t>412399</t>
   </si>
   <si>
-    <t>David Schweikert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -508,9 +475,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman, and Ranking Member Maloney, for this series of hearings.</t>
   </si>
   <si>
@@ -568,9 +532,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    And thank you, Director Grim. I appreciate you being here, and I appreciate you helping us on these issues.    As I believe all of us know, the Department of Labor clearly is aggressively pushing a new fiduciary standard based upon the Employee Retirement Income Security Act (ERISA). While I heard concerns early on, every day it has become more evident that the Department of Labor has little understanding of the market that it is seeking to regulate or really any perception of the negative implications its proposal have on retail investors, and my sense is they are not willing to listen.    On July 29, 2015, I sent two separate letters to Secretary Perez. It has now been almost 3 months, and he has not responded to me and has done nothing to address the serious concerns of my constituents.    Since Secretary Perez has chosen not to respond to these letters, I wanted to see if I could ask your opinion on these issues. Should the exclusive sale of proprietary products or services be viewed as a violation of a best interest standard?    As you know, this has been proposed by the Department of Labor, but it would be inconsistent with the congressional directive of Section 913 of Dodd-Frank. Labor has proposed that options not be permissible in retirement accounts, but they would continue to be permissible in nonretirement accounts. What are your thoughts on the concept of limiting the types of investments that can be held in retirement accounts?</t>
   </si>
   <si>
@@ -592,9 +553,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you very much, Mr. Chairman. I appreciate it.    And thank you, Mr. Grim, for being here. I understand this is your first time doing it, and you are doing a great job, and I appreciate it very much.    I don't know if you are familiar with Maine, but not only is it the greatest State in the country and the most beautiful State in the country, it is also the oldest State in the country. We have the oldest average age in America. And we only have two congressional districts. I represent one, the real Maine, not northern Massachusetts, the real Maine, which is western, central, northern, and down east Maine, and it is highly rural, Mr. Grim. We have folks who are off the grid, we have folks who go through power outages on a regular basis, and a lot of folks who are just not online.    Now, at the SEC, you folks have a proposed rule 30e-3 which would allow investment management firms, primarily mutual funds, I believe, to no longer send out quarterly reports and annual reports to mutual fund investors, instead trying to get folks to log on and print that out or see it online.    Now, here is the problem with that, sir. First of all, 71 percent of investors around the country want to receive paper reports, and this is a study done by you folks, subcontracted by you folks in 2012. Forty-one percent of the seniors have no Internet. My mother is 87. She can barely use a cell phone. She doesn't use the Internet. Seniors also own about one-half, roughly, of all mutual fund assets.    So I am very concerned about making sure the SEC does its job, as you said here several times, of making sure small investors are protected. And the best way to protect them, Mr. Grim, and I think we can agree, is to make sure we continue to allow easy access to financial information in paper form, which our seniors want. Can we agree to that?</t>
   </si>
   <si>
@@ -628,18 +586,12 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. I would like to defer to the gentlelady from New York.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Velazquez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Velazquez. Thank you, Mr. Chairman.    Let me take this opportunity to thank my colleague, Mr. Sherman, for yielding. And I want to take this opportunity also to thank the ranking member and the chairman for allowing me to participate in this subcommittee hearing, an important one.    I want to raise an issue with you, Mr. Grim, that is very important to hard-working Americans in the U.S. territories, including Puerto Rico. As you may know, Puerto Rico and all U.S. territories are exempted from the Investment Company Act of 1940. And when you look at the history and the Congressional Record, the argument at the time was that these territories were far away and that it will imply more resources.    Recently, it was reported that UBS was underwriting bonds for Puerto Rico's retirement system and then placing these same bonds into mutual funds that were sold to customers on the island. Would this practice be permitted in the 50 States?</t>
   </si>
   <si>
@@ -664,9 +616,6 @@
     <t>412461</t>
   </si>
   <si>
-    <t>Steve Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stivers. Thank you, Mr. Chairman. I appreciate you holding this very important hearing.    And, Mr. Grim, I appreciate you being here. I just wanted to ask you first if it is lonely down there all by yourself?</t>
   </si>
   <si>
@@ -733,9 +682,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you.    And thank you, Director Grim.    The OFR's asset management report included a number of factual errors. For example, the report listed an incorrect name for Fidelity's highest-level asset management entity and misreported the amount of its assets under management. The report improperly described Vanguard's structure. The report misrepresented the amount of assets under management for PIMCO.    Thankfully here, the SEC provided stakeholders an opportunity in this situation to point out these mistakes, along with substantive concerns that the SEC had about the report. Do you think some of these mistakes could have been avoided if the OFR worked more closely with the financial supervisors and regulators, those, after all, with the expertise in these areas, and maybe also opened up their work for public comment?</t>
   </si>
   <si>
@@ -752,9 +698,6 @@
   </si>
   <si>
     <t>400175</t>
-  </si>
-  <si>
-    <t>Jeb Hensarling</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grim, thank you very much for appearing before this committee today.    The Chair notes that some Members may have additional questions for this witness, which they may wish to submit in writing. Without objection, the hearing record will remain open for 5 legislative days for Members to submit written questions to this witness and to place his responses in the record. Also, without objection, Members will have 5 legislative days to submit extraneous materials to the Chair for inclusion in the record.    The hearing is adjourned.</t>
@@ -1156,11 +1099,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1180,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1208,11 +1147,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1232,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1260,11 +1195,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1286,11 +1219,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1312,11 +1243,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1338,11 +1267,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1364,11 +1291,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1390,11 +1315,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1416,11 +1339,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1442,11 +1363,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1468,11 +1387,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1494,11 +1411,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1520,11 +1435,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1546,11 +1459,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1572,11 +1483,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1598,11 +1507,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1622,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1648,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1674,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1700,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1726,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1752,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1780,11 +1675,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1804,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1830,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1856,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1882,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1908,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1934,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1960,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1986,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2012,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2038,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2066,11 +1939,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2090,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2116,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2142,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>53</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2168,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>54</v>
-      </c>
-      <c r="H41" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2194,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2220,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2246,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2274,11 +2131,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2298,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2324,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2350,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2376,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2402,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>64</v>
-      </c>
-      <c r="H50" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2428,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2456,11 +2299,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2480,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2506,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2532,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2558,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2584,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2610,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="H58" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2638,11 +2467,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2662,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2688,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2714,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2740,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2766,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2792,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2818,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>82</v>
-      </c>
-      <c r="H66" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2844,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2870,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2896,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2922,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2948,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2976,11 +2779,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3000,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3026,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3052,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3078,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3104,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3132,11 +2923,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3156,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3182,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3208,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3234,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3260,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3286,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
-      <c r="H84" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3312,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
-      </c>
-      <c r="G85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>103</v>
-      </c>
-      <c r="H85" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3338,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3364,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3390,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3416,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3442,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3468,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3494,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3522,11 +3283,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3546,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3572,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3598,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3624,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3650,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
-      </c>
-      <c r="G98" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3676,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3702,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>119</v>
-      </c>
-      <c r="G100" t="s">
-        <v>120</v>
-      </c>
-      <c r="H100" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3728,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>120</v>
-      </c>
-      <c r="H101" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3754,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3780,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3806,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3832,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3860,11 +3595,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3884,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
-      </c>
-      <c r="G107" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3910,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3936,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3962,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3988,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4014,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4040,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G113" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4066,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>134</v>
-      </c>
-      <c r="G114" t="s">
-        <v>135</v>
-      </c>
-      <c r="H114" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4092,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
-      </c>
-      <c r="G115" t="s">
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>135</v>
-      </c>
-      <c r="H115" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4118,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
-      </c>
-      <c r="G116" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4144,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
-      </c>
-      <c r="G117" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4172,11 +3883,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4196,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4222,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4248,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4274,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4302,11 +4003,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4326,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>155</v>
-      </c>
-      <c r="G124" t="s">
-        <v>156</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4352,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>155</v>
-      </c>
-      <c r="G125" t="s">
-        <v>156</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4378,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
-      </c>
-      <c r="G126" t="s">
-        <v>156</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4404,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>155</v>
-      </c>
-      <c r="G127" t="s">
-        <v>156</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4430,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>155</v>
-      </c>
-      <c r="G128" t="s">
-        <v>156</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4458,11 +4147,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4482,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>163</v>
-      </c>
-      <c r="G130" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4508,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>163</v>
-      </c>
-      <c r="G131" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4534,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>163</v>
-      </c>
-      <c r="G132" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4560,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
-      </c>
-      <c r="G133" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4586,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>163</v>
-      </c>
-      <c r="G134" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4612,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
-      </c>
-      <c r="G135" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4638,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>163</v>
-      </c>
-      <c r="G136" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4664,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4690,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>163</v>
-      </c>
-      <c r="G138" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4716,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G139" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4742,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
+        <v>152</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
         <v>163</v>
-      </c>
-      <c r="G140" t="s">
-        <v>164</v>
-      </c>
-      <c r="H140" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4768,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" t="s">
+        <v>152</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
         <v>164</v>
-      </c>
-      <c r="H141" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4794,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>163</v>
-      </c>
-      <c r="G142" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4820,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
-      </c>
-      <c r="G143" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4846,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>163</v>
-      </c>
-      <c r="G144" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4872,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
-      </c>
-      <c r="G145" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4898,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>163</v>
-      </c>
-      <c r="G146" t="s">
-        <v>164</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4926,11 +4579,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4950,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>183</v>
-      </c>
-      <c r="G148" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4976,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>183</v>
-      </c>
-      <c r="G149" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5002,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>183</v>
-      </c>
-      <c r="G150" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5028,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>183</v>
-      </c>
-      <c r="G151" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5054,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>183</v>
-      </c>
-      <c r="G152" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5082,11 +4723,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5106,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>191</v>
-      </c>
-      <c r="G154" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5132,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>191</v>
-      </c>
-      <c r="G155" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5158,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>191</v>
-      </c>
-      <c r="G156" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5184,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>191</v>
-      </c>
-      <c r="G157" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5212,11 +4843,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5236,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
-      </c>
-      <c r="G159" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5262,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>191</v>
-      </c>
-      <c r="G160" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5290,11 +4915,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5314,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>191</v>
-      </c>
-      <c r="G162" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5342,11 +4963,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5366,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>203</v>
-      </c>
-      <c r="G164" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5392,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>206</v>
-      </c>
-      <c r="G165" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5418,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>206</v>
-      </c>
-      <c r="G166" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5444,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>206</v>
-      </c>
-      <c r="G167" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5470,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>206</v>
-      </c>
-      <c r="G168" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5496,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>206</v>
-      </c>
-      <c r="G169" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5522,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>206</v>
-      </c>
-      <c r="G170" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5550,11 +5155,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5574,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>215</v>
-      </c>
-      <c r="G172" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5600,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>215</v>
-      </c>
-      <c r="G173" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5626,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>215</v>
-      </c>
-      <c r="G174" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5652,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>215</v>
-      </c>
-      <c r="G175" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5678,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>215</v>
-      </c>
-      <c r="G176" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5704,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>215</v>
-      </c>
-      <c r="G177" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5730,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>215</v>
-      </c>
-      <c r="G178" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5756,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>215</v>
-      </c>
-      <c r="G179" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5782,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>215</v>
-      </c>
-      <c r="G180" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5808,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>215</v>
-      </c>
-      <c r="G181" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5834,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>215</v>
-      </c>
-      <c r="G182" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5860,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>215</v>
-      </c>
-      <c r="G183" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5886,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5912,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>215</v>
-      </c>
-      <c r="G185" t="s">
-        <v>216</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5938,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5964,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>203</v>
-      </c>
-      <c r="G187" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5990,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>203</v>
-      </c>
-      <c r="G188" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6016,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>203</v>
-      </c>
-      <c r="G189" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6042,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>203</v>
-      </c>
-      <c r="G190" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6068,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>203</v>
-      </c>
-      <c r="G191" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6094,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6120,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>238</v>
-      </c>
-      <c r="G193" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6146,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>238</v>
-      </c>
-      <c r="G194" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6172,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>238</v>
-      </c>
-      <c r="G195" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6198,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>238</v>
-      </c>
-      <c r="G196" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6224,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6250,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>245</v>
-      </c>
-      <c r="G198" t="s">
-        <v>246</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99777.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99777.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400145</t>
   </si>
   <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Garrett. Good morning, everyone. The Subcommittee on Capital Markets and Government Sponsored Enterprises will now come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Oversight of the SEC's Division of Investment Management.'' I welcome our witness, the Director of the Division, Mr. David Grim.    Without objection, members of the Full Financial Services Committee who are not members of the subcommittee will be recognized for the purpose of questioning the witness.    I will now recognize myself for 3 minutes for an opening statement.    Today's hearing will focus on the oversight of the SEC's Division of Investment Management. This will actually be the fourth oversight hearing that this subcommittee has held in just this last year-and-a-half with regard to various divisions within the SEC.</t>
   </si>
   <si>
     <t>400251</t>
   </si>
   <si>
+    <t>Maloney</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grim, thank you for joining us today for this hearing. And also congratulations to you, and some would also say condolences to you as well, on your recent appointment to head up the Division. Thank you also, of course, for your hard work at the Commission for 2 decades, 20 years.    The Division of Investment Management has broad regulatory responsibility over registered investment companies, ICIs, investment advisers, asset managers, and other entities that manage money basically on behalf of investors. And this year actually marks the 75th anniversary of the Investment Company Act and the Investment Advisers Act as well, two statutes that the SEC has administered for years as an independent--I note that--agency with expertise over our capital markets.    Though many on this committee, myself included, often disagree with some of the actions of the SEC, I believe that there is broad bipartisan agreement that the Commission should remain the primary regulator of investment funds and our capital markets, and that the Commission's independence should never be compromised. However, recently the SEC's independence has come under increasing threat from unaccountable and secretive regulatory bodies--namely, the FSOC, the Federal Reserve, and the Financial Stability Board--that appear to be on a mission to eliminate risk from our capital markets by imposing bank-like regulations on asset managers and others that have been deemed part of the so-called shadow banking system.    The FSOC, in particular, has not been shy in the past about using its bully pulpit, if you will, to influence or to threaten or cajole other regulators into carrying out its agenda, this despite the fact that expertise over the asset management industry and registered investment companies resides not with the prudential regulators, but with the SEC, and specifically with the Division of Investment Management.    And so to that end, I am encouraged that the SEC is finally beginning to assert its jurisdiction in this area. Last year, Chair White laid out a rulemaking agenda for asset managers that so far includes proposals for enhanced disclosure, as well as rules for liquidity management by investment funds. Now, I would prefer that the SEC draft such new rules as opposed to the FSOC or the Federal Reserve. I do remain concerned that part of the SEC's agenda is still subject to an inappropriate influence by the prudential regulators.    And so, today, as part of our oversight responsibility, this subcommittee will be closely monitoring the SEC's actions in this area to ensure that they actually reflect the SEC's threefold mission and are not simply an ad hoc response to threats from other regulatory bodies.    Additionally, I am eager to hear today about the Division's work regarding Section 913 of the Dodd-Frank Act, and the Department of Labor's Fiduciary Rule, as well as the efforts that the Division is undertaking to just generally to promote capital formation.    And so with that, Director Grim, thank you again for being with us here. And I now yield 5 minutes to the ranking member of the subcommittee, Mrs. Maloney.    Mrs. Maloney. Thank you so much, Mr. Chairman, for this continuing oversight hearing that you have arranged. And I welcome Mr. Grim to our hearing today.    The SEC's Division of Investment Management is one of the agency's most important divisions because it regulates the asset management industry including investment advisers, mutual funds, and exchange traded funds (ETFs).    Mutual funds and ETFs have been growing at an incredibly rapid pace in recent years. Mutual funds have grown from $4.4 trillion in assets in 2000 to a whopping $12.7 trillion in assets presently. And ETFs have grown from $151 billion in assets in 2003 to nearly $2 trillion today.    There are nearly 12,000 registered investment advisers overseen by the Investment Management Division, and these investment advisers report over $62 trillion in assets under management. So it is fair to say that the Investment Management Division has its work cut out for it. When an industry is growing and innovating as rapidly as the asset management industry, it is critical that the regulator not get left behind.    So has the growth come from new products that pose excessive risks or that investors don't fully understand? Has the industry's core infrastructure kept pace with the rapid growth?    On this score, the Investment Management Division is beginning to catch up with the industry. For instance, the Division is working on three critical new rules on liquidity management for mutual funds, which is an area that some regulators have argued poses a risk to the markets. The Financial Stability Oversight Council, or FSOC, has expressed concern that without proper liquidity management there is a risk that funds could be forced into a fire sale of illiquid assets which would send prices plummeting and harm the broader markets.    It is not entirely clear how big this risk is. But after the financial crisis of 2008, prudence is the best course. So the SEC has responded by embarking on a series of rulemakings, led by the Investment Management Division, that are designed to protect investors by requiring mutual funds to bolster their liquidity management practices. And I think the SEC should be praised for these rulemakings. Thank you.    In May, the SEC proposed to enhance disclosures about mutual funds' liquidity which will allow investors to make more informed choices and potentially avoid investing in funds that are riskier than an investor wants. And just last month, the SEC proposed a new rule that would allow mutual funds to use something called swing pricing, which would force investors who are withdrawing their money from mutual funds to internalize the cost of their withdrawals and thus protect the remaining investors.    I think that this is a sensible proposal to the extent that the liquidity issues in mutual funds could create a real first-mover advantage, in other words, an incentive for investors to withdraw their money first, like on a bank run. Swing pricing has the potential to eliminate that first-mover advantage entirely.    This latest proposed rule also formalizes and enhances the SEC's longstanding liquidity guidelines for mutual funds, which will provide more consistent and robust liquidity practices across the entire mutual fund industry.    So I am encouraged by the Investment Management Division's work in this area, and I hope that they will continue to press ahead with the proposals that Chair Mary Jo White outlined before this committee earlier. I look forward to hearing more from Mr. Grim about his work on these proposals. And I yield back.    Thank you very much for coming.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412484</t>
   </si>
   <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurt. Thank you, Mr. Chairman. I thank you for holding today's hearing.    Welcome, Mr. Grim. Thank you for joining us today.    I am pleased that this subcommittee is continuing to focus on vigorous oversight and accountability within the SEC. Today's hearing is an important reminder of the critical functions that the SEC's Division of Investment Management plays in our economy as the SEC's mission includes the critical component of facilitating capital formation.    Capital formation is crucial to the success of our economy, and as I travel across Virginia's Fifth congressional district, my district, I am regularly reminded of how our Nation's small businesses and startups depend on access to private capital to be successful.    I am also regularly reminded that well-intended Federal regulation often results in creating unnecessary costs and barriers to capital formation. As you may know, I have been a proponent of legislative initiatives that would encourage economic growth and job creation by increasing the flow of private capital to small businesses that are found on Main Streets all across America. Unfortunately, the Dodd-Frank Act, in many instances, has placed a costly and unnecessary regulatory burden of SEC registration, specifically SEC registration on advisers to private equity funds, while exempting advisers to other similar funds.    A bill that Representative Jim Himes and I sponsored last Congress passed the House on a bipartisan basis and, if enacted, would have eliminated this unnecessary burden and would have put private equity funds on a similar playing field as that of other similar advisers.    The reality is simple: private equity funds and their advisers did not cause the financial crisis, and I believe there is general consensus that they are not a source of systemic risk. In my district, there are literally thousands of jobs that exist because of the investment by private equity funds. I believe that the treatment in Dodd-Frank of advisers to private equity funds suggests that this committee review the overall Investment Advisers Act registration regime and look for ways to make sure that the laws in this area are, in fact, protecting investors and are, in fact, facilitating capital formation at a time when capital formation is desperately needed in places like my congressional district.    I look forward to your testimony, Mr. Grim, and I thank you for your appearance.    Mr. Chairman, I thank you. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -169,6 +190,12 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    And thank you, Mr. Grim, for your willingness to help the committee with its work.    Sometimes, this committee can be like a conveyor belt where we have a new issue every 7 seconds and we are on to the next rule or the next topic. I see in your remarks, your extended written remarks, you talk about the money market funds rule that we adopted back in July of 2014, where we allowed the NAV to float. There was a lot of debate here of what the impact of that might be.    Now, I realize with that type of rule, it is sort of like you are trying to test the seaworthiness of a ship and it is not necessarily easy to do when things are calm. But do you have any data for us or any experience, complaints, progress reports, lack of progress reports from the adoption of that rule on how that might be going?</t>
   </si>
   <si>
@@ -196,6 +223,12 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -220,6 +253,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chairman. I have a couple of questions on business development companies. And then whatever time I have left, I am going to yield to Ms. Velazquez for whatever questions she has.</t>
   </si>
   <si>
@@ -244,6 +283,12 @@
     <t>412488</t>
   </si>
   <si>
+    <t>Duffy</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duffy. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -286,6 +331,9 @@
     <t>400363</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, sir.</t>
   </si>
   <si>
@@ -307,6 +355,12 @@
     <t>412411</t>
   </si>
   <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ross. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -355,6 +409,12 @@
     <t>412407</t>
   </si>
   <si>
+    <t>Carney</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman.    Thank you, Mr. Grim, for coming in today and for answering the questions that we have.    I was part of a group of members of the committee on this side of the aisle, I think, obviously, I think it was also a bipartisan effort to encourage the Department of Labor and the SEC to develop the fiduciary standard, uniform fiduciary rule together in a consistent kind of way. That didn't happen. That was several years ago. And the Department of Labor has proposed its rule and they are taking a lot of feedback. They are getting a lot of input.    And you are in the process, I understand what you have said and the information that I have, in developing the standard from the SEC's perspective. Is that right? We have had a lot of conversation about it over the last--</t>
   </si>
   <si>
@@ -397,6 +457,12 @@
     <t>412437</t>
   </si>
   <si>
+    <t>Huizenga</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huizenga. Thank you, Mr. Chairman.    Quickly, I want to talk about proxy advisory firms, but I do want a quick clarification. When asked by my colleague from Florida about the Department of Labor and the fiduciary standards and about your involvement and whether the Department of Labor had asked for help, you said, ``We have shared the information.'' Did the DOL actually ask you proactively for that help?</t>
   </si>
   <si>
@@ -436,6 +502,12 @@
     <t>412282</t>
   </si>
   <si>
+    <t>Himes</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Himes. Thank you, Mr. Chairman.    And thank you, Mr. Grim, for being with us. I have two categories or two questions, really.    The first is, you note in your testimony that in December of 2014, the FSOC released a notice seeking public comment on risks to financial stability from asset managers, and you further note that the staff has reviewed the comments received. It is a topic of some interest to a lot of us about systemic risk that may or may not be associated with asset managers.    I know you have sort of addressed this a little bit, but I wonder if I could get you to characterize these comments and any initial conclusions or preliminary conclusions or thoughts that you might have on the comments as a whole and whether there is a sense that there is systemic risk emergent from asset managers.</t>
   </si>
   <si>
@@ -454,6 +526,9 @@
     <t>412399</t>
   </si>
   <si>
+    <t>Schweikert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -475,6 +550,12 @@
     <t>412609</t>
   </si>
   <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman, and Ranking Member Maloney, for this series of hearings.</t>
   </si>
   <si>
@@ -532,6 +613,9 @@
     <t>412422</t>
   </si>
   <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    And thank you, Director Grim. I appreciate you being here, and I appreciate you helping us on these issues.    As I believe all of us know, the Department of Labor clearly is aggressively pushing a new fiduciary standard based upon the Employee Retirement Income Security Act (ERISA). While I heard concerns early on, every day it has become more evident that the Department of Labor has little understanding of the market that it is seeking to regulate or really any perception of the negative implications its proposal have on retail investors, and my sense is they are not willing to listen.    On July 29, 2015, I sent two separate letters to Secretary Perez. It has now been almost 3 months, and he has not responded to me and has done nothing to address the serious concerns of my constituents.    Since Secretary Perez has chosen not to respond to these letters, I wanted to see if I could ask your opinion on these issues. Should the exclusive sale of proprietary products or services be viewed as a violation of a best interest standard?    As you know, this has been proposed by the Department of Labor, but it would be inconsistent with the congressional directive of Section 913 of Dodd-Frank. Labor has proposed that options not be permissible in retirement accounts, but they would continue to be permissible in nonretirement accounts. What are your thoughts on the concept of limiting the types of investments that can be held in retirement accounts?</t>
   </si>
   <si>
@@ -553,6 +637,12 @@
     <t>412633</t>
   </si>
   <si>
+    <t>Poliquin</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you very much, Mr. Chairman. I appreciate it.    And thank you, Mr. Grim, for being here. I understand this is your first time doing it, and you are doing a great job, and I appreciate it very much.    I don't know if you are familiar with Maine, but not only is it the greatest State in the country and the most beautiful State in the country, it is also the oldest State in the country. We have the oldest average age in America. And we only have two congressional districts. I represent one, the real Maine, not northern Massachusetts, the real Maine, which is western, central, northern, and down east Maine, and it is highly rural, Mr. Grim. We have folks who are off the grid, we have folks who go through power outages on a regular basis, and a lot of folks who are just not online.    Now, at the SEC, you folks have a proposed rule 30e-3 which would allow investment management firms, primarily mutual funds, I believe, to no longer send out quarterly reports and annual reports to mutual fund investors, instead trying to get folks to log on and print that out or see it online.    Now, here is the problem with that, sir. First of all, 71 percent of investors around the country want to receive paper reports, and this is a study done by you folks, subcontracted by you folks in 2012. Forty-one percent of the seniors have no Internet. My mother is 87. She can barely use a cell phone. She doesn't use the Internet. Seniors also own about one-half, roughly, of all mutual fund assets.    So I am very concerned about making sure the SEC does its job, as you said here several times, of making sure small investors are protected. And the best way to protect them, Mr. Grim, and I think we can agree, is to make sure we continue to allow easy access to financial information in paper form, which our seniors want. Can we agree to that?</t>
   </si>
   <si>
@@ -586,12 +676,21 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. I would like to defer to the gentlelady from New York.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Velazquez. Thank you, Mr. Chairman.    Let me take this opportunity to thank my colleague, Mr. Sherman, for yielding. And I want to take this opportunity also to thank the ranking member and the chairman for allowing me to participate in this subcommittee hearing, an important one.    I want to raise an issue with you, Mr. Grim, that is very important to hard-working Americans in the U.S. territories, including Puerto Rico. As you may know, Puerto Rico and all U.S. territories are exempted from the Investment Company Act of 1940. And when you look at the history and the Congressional Record, the argument at the time was that these territories were far away and that it will imply more resources.    Recently, it was reported that UBS was underwriting bonds for Puerto Rico's retirement system and then placing these same bonds into mutual funds that were sold to customers on the island. Would this practice be permitted in the 50 States?</t>
   </si>
   <si>
@@ -616,6 +715,12 @@
     <t>412461</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stivers. Thank you, Mr. Chairman. I appreciate you holding this very important hearing.    And, Mr. Grim, I appreciate you being here. I just wanted to ask you first if it is lonely down there all by yourself?</t>
   </si>
   <si>
@@ -682,6 +787,12 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you.    And thank you, Director Grim.    The OFR's asset management report included a number of factual errors. For example, the report listed an incorrect name for Fidelity's highest-level asset management entity and misreported the amount of its assets under management. The report improperly described Vanguard's structure. The report misrepresented the amount of assets under management for PIMCO.    Thankfully here, the SEC provided stakeholders an opportunity in this situation to point out these mistakes, along with substantive concerns that the SEC had about the report. Do you think some of these mistakes could have been avoided if the OFR worked more closely with the financial supervisors and regulators, those, after all, with the expertise in these areas, and maybe also opened up their work for public comment?</t>
   </si>
   <si>
@@ -698,6 +809,12 @@
   </si>
   <si>
     <t>400175</t>
+  </si>
+  <si>
+    <t>Hensarling</t>
+  </si>
+  <si>
+    <t>Jeb</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grim, thank you very much for appearing before this committee today.    The Chair notes that some Members may have additional questions for this witness, which they may wish to submit in writing. Without objection, the hearing record will remain open for 5 legislative days for Members to submit written questions to this witness and to place his responses in the record. Also, without objection, Members will have 5 legislative days to submit extraneous materials to the Chair for inclusion in the record.    The hearing is adjourned.</t>
@@ -1049,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1174,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,4733 +1196,5709 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>89</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>89</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>113</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>113</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>113</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
       <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
       <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>113</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
       <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
       <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>96</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G94" t="s">
+        <v>131</v>
+      </c>
       <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>131</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G96" t="s">
+        <v>131</v>
+      </c>
       <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G97" t="s">
+        <v>131</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>112</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G98" t="s">
+        <v>131</v>
+      </c>
       <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G101" t="s">
+        <v>131</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G102" t="s">
+        <v>131</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G103" t="s">
+        <v>131</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G104" t="s">
+        <v>131</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G105" t="s">
+        <v>131</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G107" t="s">
+        <v>147</v>
+      </c>
       <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G108" t="s">
+        <v>147</v>
+      </c>
       <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G109" t="s">
+        <v>147</v>
+      </c>
       <c r="H109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G110" t="s">
+        <v>147</v>
+      </c>
       <c r="H110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G111" t="s">
+        <v>147</v>
+      </c>
       <c r="H111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G112" t="s">
+        <v>147</v>
+      </c>
       <c r="H112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G113" t="s">
+        <v>147</v>
+      </c>
       <c r="H113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G114" t="s">
+        <v>147</v>
+      </c>
       <c r="H114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G115" t="s">
+        <v>147</v>
+      </c>
       <c r="H115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G116" t="s">
+        <v>147</v>
+      </c>
       <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G117" t="s">
+        <v>147</v>
+      </c>
       <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G120" t="s">
+        <v>162</v>
+      </c>
       <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G121" t="s">
+        <v>162</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G122" t="s">
+        <v>162</v>
+      </c>
       <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>145</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G124" t="s">
+        <v>170</v>
+      </c>
       <c r="H124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G125" t="s">
+        <v>170</v>
+      </c>
       <c r="H125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G126" t="s">
+        <v>170</v>
+      </c>
       <c r="H126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G127" t="s">
+        <v>170</v>
+      </c>
       <c r="H127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G128" t="s">
+        <v>170</v>
+      </c>
       <c r="H128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>152</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G130" t="s">
+        <v>178</v>
+      </c>
       <c r="H130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G131" t="s">
+        <v>178</v>
+      </c>
       <c r="H131" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>152</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G132" t="s">
+        <v>178</v>
+      </c>
       <c r="H132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G133" t="s">
+        <v>178</v>
+      </c>
       <c r="H133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>152</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G134" t="s">
+        <v>178</v>
+      </c>
       <c r="H134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G135" t="s">
+        <v>178</v>
+      </c>
       <c r="H135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I135" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>152</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G136" t="s">
+        <v>178</v>
+      </c>
       <c r="H136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G137" t="s">
+        <v>178</v>
+      </c>
       <c r="H137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>152</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G138" t="s">
+        <v>178</v>
+      </c>
       <c r="H138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>152</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G139" t="s">
+        <v>178</v>
+      </c>
       <c r="H139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>152</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G140" t="s">
+        <v>178</v>
+      </c>
       <c r="H140" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>152</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G141" t="s">
+        <v>178</v>
+      </c>
       <c r="H141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>152</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G142" t="s">
+        <v>178</v>
+      </c>
       <c r="H142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G143" t="s">
+        <v>178</v>
+      </c>
       <c r="H143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>152</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G144" t="s">
+        <v>178</v>
+      </c>
       <c r="H144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>152</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G145" t="s">
+        <v>178</v>
+      </c>
       <c r="H145" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>152</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G146" t="s">
+        <v>178</v>
+      </c>
       <c r="H146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>171</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G148" t="s">
+        <v>199</v>
+      </c>
       <c r="H148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I148" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>171</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G149" t="s">
+        <v>199</v>
+      </c>
       <c r="H149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G150" t="s">
+        <v>199</v>
+      </c>
       <c r="H150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G151" t="s">
+        <v>199</v>
+      </c>
       <c r="H151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I151" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G152" t="s">
+        <v>199</v>
+      </c>
       <c r="H152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I152" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>178</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G154" t="s">
+        <v>207</v>
+      </c>
       <c r="H154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>178</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G155" t="s">
+        <v>207</v>
+      </c>
       <c r="H155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>178</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G156" t="s">
+        <v>207</v>
+      </c>
       <c r="H156" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G157" t="s">
+        <v>207</v>
+      </c>
       <c r="H157" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G159" t="s">
+        <v>207</v>
+      </c>
       <c r="H159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>178</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G160" t="s">
+        <v>207</v>
+      </c>
       <c r="H160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>178</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G162" t="s">
+        <v>207</v>
+      </c>
       <c r="H162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>189</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G164" t="s">
+        <v>220</v>
+      </c>
       <c r="H164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I164" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="G165" t="s">
+        <v>224</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>191</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="G166" t="s">
+        <v>224</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>191</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="G167" t="s">
+        <v>224</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>191</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="G168" t="s">
+        <v>224</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>191</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="G169" t="s">
+        <v>224</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>191</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="G170" t="s">
+        <v>224</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>199</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G172" t="s">
+        <v>233</v>
+      </c>
       <c r="H172" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I172" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>199</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G173" t="s">
+        <v>233</v>
+      </c>
       <c r="H173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>199</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G174" t="s">
+        <v>233</v>
+      </c>
       <c r="H174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>199</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G175" t="s">
+        <v>233</v>
+      </c>
       <c r="H175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I175" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>199</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G176" t="s">
+        <v>233</v>
+      </c>
       <c r="H176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I176" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>199</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G177" t="s">
+        <v>233</v>
+      </c>
       <c r="H177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I177" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>199</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G178" t="s">
+        <v>233</v>
+      </c>
       <c r="H178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I178" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>199</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G179" t="s">
+        <v>233</v>
+      </c>
       <c r="H179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>199</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G180" t="s">
+        <v>233</v>
+      </c>
       <c r="H180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I180" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>199</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G181" t="s">
+        <v>233</v>
+      </c>
       <c r="H181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I181" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>199</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G182" t="s">
+        <v>233</v>
+      </c>
       <c r="H182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G183" t="s">
+        <v>233</v>
+      </c>
       <c r="H183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I183" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>22</v>
+      </c>
       <c r="H184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I184" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G185" t="s">
+        <v>233</v>
+      </c>
       <c r="H185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I185" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>22</v>
+      </c>
       <c r="H186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>189</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G187" t="s">
+        <v>220</v>
+      </c>
       <c r="H187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I187" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>189</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G188" t="s">
+        <v>220</v>
+      </c>
       <c r="H188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I188" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>189</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G189" t="s">
+        <v>220</v>
+      </c>
       <c r="H189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I189" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>189</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G190" t="s">
+        <v>220</v>
+      </c>
       <c r="H190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I190" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>189</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G191" t="s">
+        <v>220</v>
+      </c>
       <c r="H191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I191" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>22</v>
+      </c>
       <c r="H192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I192" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>221</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>256</v>
+      </c>
+      <c r="G193" t="s">
+        <v>257</v>
+      </c>
       <c r="H193" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I193" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>221</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>256</v>
+      </c>
+      <c r="G194" t="s">
+        <v>257</v>
+      </c>
       <c r="H194" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I194" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>221</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>256</v>
+      </c>
+      <c r="G195" t="s">
+        <v>257</v>
+      </c>
       <c r="H195" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I195" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>221</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>256</v>
+      </c>
+      <c r="G196" t="s">
+        <v>257</v>
+      </c>
       <c r="H196" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I196" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>22</v>
+      </c>
       <c r="H197" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I197" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>227</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G198" t="s">
+        <v>265</v>
+      </c>
       <c r="H198" t="s">
-        <v>228</v>
+        <v>266</v>
+      </c>
+      <c r="I198" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99777.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99777.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400145</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Garrett</t>
   </si>
   <si>
@@ -809,6 +815,9 @@
   </si>
   <si>
     <t>400175</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Hensarling</t>
@@ -1166,7 +1175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1174,7 +1183,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,5706 +1208,6288 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G82" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G90" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G91" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G96" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I102" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G105" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I107" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I108" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G111" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I111" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G112" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G119" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G120" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I120" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G122" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I122" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G124" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I124" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G125" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I125" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G126" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I126" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G127" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G130" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I130" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G131" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I131" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G132" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I132" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G133" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G134" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I134" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G135" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I135" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G136" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I136" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G137" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G138" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I138" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G139" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G140" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I140" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G141" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I141" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G142" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G143" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I143" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G144" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I144" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J144" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G145" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J145" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G146" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I146" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J146" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="I148" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G149" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="I149" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G150" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="I150" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G151" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="I151" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G152" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="I152" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G154" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I154" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J154" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G155" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I155" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G156" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I156" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G157" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I157" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G159" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I159" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J159" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G160" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I160" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G162" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I162" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J162" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G164" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I164" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J164" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>223</v>
-      </c>
-      <c r="G165" t="s">
-        <v>224</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>226</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>223</v>
-      </c>
-      <c r="G166" t="s">
-        <v>224</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
+        <v>225</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>223</v>
-      </c>
-      <c r="G167" t="s">
-        <v>224</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>226</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>223</v>
-      </c>
-      <c r="G168" t="s">
-        <v>224</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>226</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>223</v>
-      </c>
-      <c r="G169" t="s">
-        <v>224</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>226</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>223</v>
-      </c>
-      <c r="G170" t="s">
-        <v>224</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>226</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G172" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I172" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G173" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I173" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G174" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I174" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G175" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I175" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G176" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I176" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J176" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G177" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I177" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G178" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I178" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J178" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G179" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I179" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J179" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G180" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I180" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J180" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G181" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I181" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J181" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G182" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I182" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J182" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G183" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I183" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J183" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I184" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J184" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G185" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I185" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J185" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G186" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I186" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J186" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G187" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I187" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J187" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G188" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I188" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J188" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G189" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I189" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J189" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G190" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I190" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J190" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G191" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I191" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J191" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G192" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I192" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J192" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G193" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I193" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J193" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G194" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I194" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G195" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I195" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J195" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G196" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I196" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J196" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G197" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I197" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J197" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G198" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H198" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I198" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="J198" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
